--- a/03.crawler/09.FourSeasons/file/1.part_number/crawler_1.xlsx
+++ b/03.crawler/09.FourSeasons/file/1.part_number/crawler_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24100" windowHeight="14040"/>
+    <workbookView windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD722"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
